--- a/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Vouwwanden/AluminiumVouwwanden/Vouwwanden products.xlsx
+++ b/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Vouwwanden/AluminiumVouwwanden/Vouwwanden products.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Azure\nopCommerce\src\Plugins\Nop.Plugin.Misc.Kozijnen\Imports\Vouwwanden\AluminiumVouwwanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A12F4CC-0B57-43E3-BBF9-0E6AC521588D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8091AD-E1EF-492A-9663-FBD9EA8D9F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C56C002E-1985-4449-A543-6FCE5FA9EFAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
   <si>
     <t>Name</t>
   </si>
@@ -176,6 +177,39 @@
   </si>
   <si>
     <t>Aluminium vouwwanden</t>
+  </si>
+  <si>
+    <t>delig</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>breedte</t>
+  </si>
+  <si>
+    <t>hoogte</t>
+  </si>
+  <si>
+    <t>Kleur</t>
+  </si>
+  <si>
+    <t>verplicht</t>
+  </si>
+  <si>
+    <t>Delen3</t>
+  </si>
+  <si>
+    <t>Delen4</t>
+  </si>
+  <si>
+    <t>Delen5</t>
+  </si>
+  <si>
+    <t>Delen6</t>
   </si>
 </sst>
 </file>
@@ -695,7 +729,7 @@
   <dimension ref="A1:V6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>2000</v>
+        <v>1700</v>
       </c>
       <c r="G2">
         <v>2000</v>
@@ -877,13 +911,13 @@
         <v>10</v>
       </c>
       <c r="F3">
-        <v>3000</v>
+        <v>2300</v>
       </c>
       <c r="G3">
         <v>2000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -945,13 +979,13 @@
         <v>20</v>
       </c>
       <c r="F4">
-        <v>4000</v>
+        <v>3000</v>
       </c>
       <c r="G4">
         <v>2000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
@@ -1010,13 +1044,13 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>5000</v>
+        <v>3800</v>
       </c>
       <c r="G5">
         <v>2000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
@@ -1078,13 +1112,13 @@
         <v>40</v>
       </c>
       <c r="F6">
-        <v>6000</v>
+        <v>4400</v>
       </c>
       <c r="G6">
         <v>2000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
@@ -1136,4 +1170,114 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7D9FB0A-9552-4A2B-A2D7-179F2AC8DF73}">
+  <dimension ref="A2:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>1700</v>
+      </c>
+      <c r="D4">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>2300</v>
+      </c>
+      <c r="D5">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3000</v>
+      </c>
+      <c r="D6">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>3800</v>
+      </c>
+      <c r="D7">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>4400</v>
+      </c>
+      <c r="D8">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>2000</v>
+      </c>
+      <c r="D13">
+        <v>2690</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Vouwwanden/AluminiumVouwwanden/Vouwwanden products.xlsx
+++ b/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Vouwwanden/AluminiumVouwwanden/Vouwwanden products.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Azure\nopCommerce\src\Plugins\Nop.Plugin.Misc.Kozijnen\Imports\Vouwwanden\AluminiumVouwwanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8091AD-E1EF-492A-9663-FBD9EA8D9F16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ECCA38-3335-4292-9C92-FDFA5791563D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C56C002E-1985-4449-A543-6FCE5FA9EFAF}"/>
+    <workbookView xWindow="28830" yWindow="15" windowWidth="10845" windowHeight="15570" activeTab="2" xr2:uid="{C56C002E-1985-4449-A543-6FCE5FA9EFAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
   <si>
     <t>Name</t>
   </si>
@@ -210,6 +211,51 @@
   </si>
   <si>
     <t>Delen6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rechts vouwend </t>
+  </si>
+  <si>
+    <t>links vouwend</t>
+  </si>
+  <si>
+    <t>Deur meevouwend</t>
+  </si>
+  <si>
+    <t>Vaste deur</t>
+  </si>
+  <si>
+    <t>Symmetrisch vouwend</t>
+  </si>
+  <si>
+    <t>vouwrichting rechts</t>
+  </si>
+  <si>
+    <t>vouwrichting links</t>
+  </si>
+  <si>
+    <t>deur midden</t>
+  </si>
+  <si>
+    <t>Dubbele deur links</t>
+  </si>
+  <si>
+    <t>Dubbele deur rechts</t>
+  </si>
+  <si>
+    <t>Dubbele deur midden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 rechts 4 links vouwend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 rechts 2 links vouwend </t>
+  </si>
+  <si>
+    <t>dubbele  deur links</t>
+  </si>
+  <si>
+    <t>dubbele  deur rechts</t>
   </si>
 </sst>
 </file>
@@ -728,7 +774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E18571-E348-4C24-8643-E3BA023899E4}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -1177,7 +1223,7 @@
   <dimension ref="A2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C8"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,4 +1326,279 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6904B451-D3CE-48EB-98E1-0072D9A6A5AB}">
+  <dimension ref="A5:F32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="22.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="E13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="E17" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="E19" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="E23" t="s">
+        <v>60</v>
+      </c>
+      <c r="F23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>60</v>
+      </c>
+      <c r="F24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="E28" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Vouwwanden/AluminiumVouwwanden/Vouwwanden products.xlsx
+++ b/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Vouwwanden/AluminiumVouwwanden/Vouwwanden products.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Azure\nopCommerce\src\Plugins\Nop.Plugin.Misc.Kozijnen\Imports\Vouwwanden\AluminiumVouwwanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36ECCA38-3335-4292-9C92-FDFA5791563D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E15C0-54C0-46BC-B6AB-AE3B418986B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="15" windowWidth="10845" windowHeight="15570" activeTab="2" xr2:uid="{C56C002E-1985-4449-A543-6FCE5FA9EFAF}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C56C002E-1985-4449-A543-6FCE5FA9EFAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -177,9 +177,6 @@
     <t>6 delige aluminium vouwwand</t>
   </si>
   <si>
-    <t>Aluminium vouwwanden</t>
-  </si>
-  <si>
     <t>delig</t>
   </si>
   <si>
@@ -256,6 +253,9 @@
   </si>
   <si>
     <t>dubbele  deur rechts</t>
+  </si>
+  <si>
+    <t>Vouwwanden</t>
   </si>
 </sst>
 </file>
@@ -774,8 +774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E18571-E348-4C24-8643-E3BA023899E4}">
   <dimension ref="A1:V6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -877,7 +877,7 @@
         <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>35</v>
@@ -945,7 +945,7 @@
         <v>40</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>36</v>
@@ -963,7 +963,7 @@
         <v>2000</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>23</v>
@@ -1013,7 +1013,7 @@
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C4" t="s">
         <v>37</v>
@@ -1031,7 +1031,7 @@
         <v>2000</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>23</v>
@@ -1081,7 +1081,7 @@
         <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="D5" t="b">
         <v>1</v>
@@ -1096,7 +1096,7 @@
         <v>2000</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>23</v>
@@ -1146,7 +1146,7 @@
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
         <v>38</v>
@@ -1164,7 +1164,7 @@
         <v>2000</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>23</v>
@@ -1230,18 +1230,18 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>46</v>
-      </c>
-      <c r="D3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1301,7 +1301,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1314,12 +1314,12 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1332,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6904B451-D3CE-48EB-98E1-0072D9A6A5AB}">
   <dimension ref="A5:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -1344,7 +1344,7 @@
   <sheetData>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1361,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1372,10 +1372,10 @@
         <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1383,10 +1383,10 @@
         <v>2</v>
       </c>
       <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1394,10 +1394,10 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1405,10 +1405,10 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1419,7 +1419,7 @@
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1427,7 +1427,7 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1435,10 +1435,10 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1446,10 +1446,10 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -1457,7 +1457,7 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
@@ -1468,10 +1468,10 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
@@ -1479,10 +1479,10 @@
         <v>2</v>
       </c>
       <c r="E20" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" t="s">
         <v>57</v>
-      </c>
-      <c r="F20" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -1490,10 +1490,10 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -1501,10 +1501,10 @@
         <v>4</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.25">
@@ -1512,10 +1512,10 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.25">
@@ -1523,10 +1523,10 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.25">
@@ -1537,10 +1537,10 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.25">
@@ -1548,10 +1548,10 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.25">
@@ -1559,10 +1559,10 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.25">
@@ -1570,7 +1570,7 @@
         <v>4</v>
       </c>
       <c r="E29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.25">
@@ -1578,7 +1578,7 @@
         <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>6</v>
       </c>
       <c r="E31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.25">
@@ -1594,7 +1594,7 @@
         <v>7</v>
       </c>
       <c r="E32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Vouwwanden/AluminiumVouwwanden/Vouwwanden products.xlsx
+++ b/src/Plugins/Nop.Plugin.Misc.Kozijnen/Imports/Vouwwanden/AluminiumVouwwanden/Vouwwanden products.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Azure\nopCommerce\src\Plugins\Nop.Plugin.Misc.Kozijnen\Imports\Vouwwanden\AluminiumVouwwanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F2E15C0-54C0-46BC-B6AB-AE3B418986B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6820B97F-A518-46F2-AD0E-307FA6C1C930}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C56C002E-1985-4449-A543-6FCE5FA9EFAF}"/>
   </bookViews>
@@ -39,11 +39,17 @@
   <connection id="1" xr16:uid="{CD4CF831-FE15-4358-B9A3-8A388572D0A8}" name="Products" type="4" refreshedVersion="0" background="1">
     <webPr xml="1" sourceData="1" url="C:\Azure\nopCommerce\src\Plugins\Nop.Plugin.Misc.Kozijnen\Imports\Vouwwanden\AluminiumVouwwanden\Products.xml" htmlTables="1" htmlFormat="all"/>
   </connection>
+  <connection id="2" xr16:uid="{C48DE6C9-0414-4E60-A5E2-76121C6B6548}" name="Products1" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Azure\nopCommerce\src\Plugins\Nop.Plugin.Misc.Kozijnen\Imports\Vouwwanden\AluminiumVouwwanden\Products.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
+  <connection id="3" xr16:uid="{839ABE21-47B9-470F-BFA3-8847F71E0BAA}" name="Products2" type="4" refreshedVersion="0" background="1">
+    <webPr xml="1" sourceData="1" url="C:\Azure\nopCommerce\src\Plugins\Nop.Plugin.Misc.Kozijnen\Imports\Vouwwanden\AluminiumVouwwanden\Products.xml" htmlTables="1" htmlFormat="all"/>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="72">
   <si>
     <t>Name</t>
   </si>
@@ -256,6 +262,9 @@
   </si>
   <si>
     <t>Vouwwanden</t>
+  </si>
+  <si>
+    <t>ShowOnHomepage</t>
   </si>
 </sst>
 </file>
@@ -298,50 +307,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -356,7 +322,7 @@
 
 <file path=xl/xmlMaps.xml><?xml version="1.0" encoding="utf-8"?>
 <MapInfo xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" SelectionNamespaces="">
-  <Schema ID="Schema1">
+  <Schema ID="Schema3">
     <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="">
       <xsd:element nillable="true" name="Imports">
         <xsd:complexType>
@@ -369,6 +335,7 @@
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="PictureName" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:boolean" name="Published" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="DisplayOrder" form="unqualified"/>
+                  <xsd:element minOccurs="0" nillable="true" type="xsd:boolean" name="ShowOnHomepage" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="BreedteKozijn" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:integer" name="HoogteKozijn" form="unqualified"/>
                   <xsd:element minOccurs="0" nillable="true" type="xsd:string" name="AantalDelen" form="unqualified"/>
@@ -394,81 +361,84 @@
       </xsd:element>
     </xsd:schema>
   </Schema>
-  <Map ID="1" Name="Imports_Map" RootElement="Imports" SchemaID="Schema1" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
-    <DataBinding FileBinding="true" ConnectionID="1" DataBindingLoadMode="1"/>
+  <Map ID="3" Name="Imports_Map" RootElement="Imports" SchemaID="Schema3" ShowImportExportValidationErrors="false" AutoFit="true" Append="false" PreserveSortAFLayout="true" PreserveFormat="true">
+    <DataBinding FileBinding="true" ConnectionID="3" DataBindingLoadMode="1"/>
   </Map>
 </MapInfo>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{988A4E2C-EF3B-4090-97D2-A6649461DCE2}" name="Table1" displayName="Table1" ref="A1:V6" tableType="xml" totalsRowShown="0" connectionId="1">
-  <autoFilter ref="A1:V6" xr:uid="{9049B183-5B66-450C-BA1F-D52D12C563B5}"/>
-  <tableColumns count="22">
-    <tableColumn id="1" xr3:uid="{0D7F7022-8726-4EAA-B88C-19D5C7E1EC88}" uniqueName="Name" name="Name">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/Name" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{28052F9A-FD67-4546-8F7D-13B0629D9B56}" uniqueName="CategoryName" name="CategoryName">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/CategoryName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{61B9D8F2-DDC0-44BF-A8A7-0333E64B5073}" uniqueName="PictureName" name="PictureName">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/PictureName" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{CD324234-089F-4C29-B067-DD21FBCC0318}" uniqueName="Published" name="Published">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/Published" xmlDataType="boolean"/>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{B3AF465D-077D-41AB-A6F1-90F846D5A90D}" uniqueName="DisplayOrder" name="DisplayOrder">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/DisplayOrder" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{F17FEA05-314F-40DD-98EA-EF72492B7C35}" uniqueName="BreedteKozijn" name="BreedteKozijn">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/BreedteKozijn" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{12402674-F7D6-429F-A87E-F60F9C148C3F}" uniqueName="HoogteKozijn" name="HoogteKozijn">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/HoogteKozijn" xmlDataType="integer"/>
-    </tableColumn>
-    <tableColumn id="8" xr3:uid="{68B80712-0F42-492E-B52D-F64888CF99FF}" uniqueName="AantalDelen" name="AantalDelen" dataDxfId="13">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/AantalDelen" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="9" xr3:uid="{E2228DAA-4461-45A4-A2D5-7B10679641C3}" uniqueName="Schuifrichting" name="Schuifrichting" dataDxfId="12">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/Schuifrichting" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{FC8D3683-835E-41DD-96D2-1D37EADF7FCC}" uniqueName="Vouwrichting" name="Vouwrichting" dataDxfId="11">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/Vouwrichting" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="11" xr3:uid="{1C39D38D-AD83-43F3-8B2E-11296A98E55A}" uniqueName="VouwKlink" name="VouwKlink" dataDxfId="10">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/VouwKlink" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="12" xr3:uid="{FA140AD2-D81B-49FE-9DA6-8B1E722FFFF9}" uniqueName="MetDeur" name="MetDeur">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/MetDeur" xmlDataType="boolean"/>
-    </tableColumn>
-    <tableColumn id="13" xr3:uid="{5B58E08E-4B50-4841-B4E9-53D05560F1D1}" uniqueName="Deuren" name="Deuren" dataDxfId="9">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/Deuren" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{0B24D45E-1C22-4F30-AB61-5416BDCD0C73}" uniqueName="LocatieLoopdeuren" name="LocatieLoopdeuren" dataDxfId="8">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/LocatieLoopdeuren" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="15" xr3:uid="{AEE3EF3F-360A-40F0-A163-CC3A739D1983}" uniqueName="TypeProfiel" name="TypeProfiel" dataDxfId="7">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/TypeProfiel" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="16" xr3:uid="{AACAB482-0081-458C-9E39-855A7BA46DA5}" uniqueName="MetAanslag" name="MetAanslag" dataDxfId="6">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/MetAanslag" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="17" xr3:uid="{9DD9CC82-E87E-4AAB-89B3-4820F8483A02}" uniqueName="Glas" name="Glas" dataDxfId="5">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/Glas" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="18" xr3:uid="{91AC3A9E-E243-446F-9FA8-8CC982D31094}" uniqueName="Roeden" name="Roeden" dataDxfId="4">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/Roeden" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="19" xr3:uid="{C0392369-D882-4CB1-BD11-420A5D71B46C}" uniqueName="KleurAfstandHouders" name="KleurAfstandHouders" dataDxfId="3">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/KleurAfstandHouders" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="20" xr3:uid="{0ED4A342-569B-4494-A0DC-56CAFDB80B77}" uniqueName="Structuur" name="Structuur" dataDxfId="2">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/Structuur" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="21" xr3:uid="{719D28CB-6E74-4D8E-8806-F7F7DD94F2BA}" uniqueName="KleurBinnenkant" name="KleurBinnenkant" dataDxfId="1">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/KleurBinnenkant" xmlDataType="string"/>
-    </tableColumn>
-    <tableColumn id="22" xr3:uid="{64B51238-B317-4052-95C4-F9380A46D34F}" uniqueName="KleurBuitenkant" name="KleurBuitenkant" dataDxfId="0">
-      <xmlColumnPr mapId="1" xpath="/Imports/Products/KleurBuitenkant" xmlDataType="string"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{210FEE5E-EF48-4AA8-A1FD-48AB6E1F814F}" name="Table2" displayName="Table2" ref="A1:W6" tableType="xml" totalsRowShown="0" connectionId="3">
+  <autoFilter ref="A1:W6" xr:uid="{D54E9A34-4600-417C-B242-D577F8F8AF5E}"/>
+  <tableColumns count="23">
+    <tableColumn id="1" xr3:uid="{CDE37261-4FC1-4E34-A0F7-0BE5E3528478}" uniqueName="Name" name="Name">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/Name" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{F904511F-3624-4718-AC42-2E4D268164BA}" uniqueName="CategoryName" name="CategoryName">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/CategoryName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{CE747255-A174-4E82-A669-E4FD6C8EDD70}" uniqueName="PictureName" name="PictureName">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/PictureName" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{DAB8AE86-3FCF-4469-A3FC-ED81425D1A45}" uniqueName="Published" name="Published">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/Published" xmlDataType="boolean"/>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{D1955DE3-EE7A-49FF-AFCD-1F227B301BA8}" uniqueName="DisplayOrder" name="DisplayOrder">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/DisplayOrder" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{24EA838C-5CCB-4252-BDD8-FDE5CE9EC44D}" uniqueName="ShowOnHomepage" name="ShowOnHomepage">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/ShowOnHomepage" xmlDataType="boolean"/>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{26FF1F18-51C5-4D99-82E4-A93EE7319238}" uniqueName="BreedteKozijn" name="BreedteKozijn">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/BreedteKozijn" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{1B87B350-2D6C-4CC5-8039-0EBC48FC87CA}" uniqueName="HoogteKozijn" name="HoogteKozijn">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/HoogteKozijn" xmlDataType="integer"/>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{2F865EF9-BF0D-4AFD-9DB0-1AD2F70B37BA}" uniqueName="AantalDelen" name="AantalDelen">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/AantalDelen" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="10" xr3:uid="{21A5D3F1-B627-4C61-97F0-F15983D83C85}" uniqueName="Schuifrichting" name="Schuifrichting">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/Schuifrichting" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="11" xr3:uid="{E37C5B40-BAC2-4073-B688-8F756F421838}" uniqueName="Vouwrichting" name="Vouwrichting">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/Vouwrichting" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{F65E9C84-7EDE-45B9-AB49-45B77F4C2FF2}" uniqueName="VouwKlink" name="VouwKlink">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/VouwKlink" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{00E7630C-7D1F-405F-9025-FE6E3ECD74E3}" uniqueName="MetDeur" name="MetDeur">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/MetDeur" xmlDataType="boolean"/>
+    </tableColumn>
+    <tableColumn id="14" xr3:uid="{AD91C11E-C859-4CBF-B6DE-067F68BCD49F}" uniqueName="Deuren" name="Deuren">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/Deuren" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{70FDEBF3-0F22-4C58-BC9D-59E49FD5E3D0}" uniqueName="LocatieLoopdeuren" name="LocatieLoopdeuren">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/LocatieLoopdeuren" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="16" xr3:uid="{8326A851-5C30-44B9-B1B6-196BC52D9AED}" uniqueName="TypeProfiel" name="TypeProfiel">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/TypeProfiel" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="17" xr3:uid="{AB535674-F420-4F14-955C-E52CDB4AAAF0}" uniqueName="MetAanslag" name="MetAanslag">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/MetAanslag" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="18" xr3:uid="{A678C553-ECE2-46BC-BB91-FBB6DDCE2582}" uniqueName="Glas" name="Glas">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/Glas" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="19" xr3:uid="{13FBB78C-A399-43AE-89B6-D6AAC1E24E7D}" uniqueName="Roeden" name="Roeden">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/Roeden" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="20" xr3:uid="{1F756FFD-FBA0-4C2E-AA49-E9F479BAA3ED}" uniqueName="KleurAfstandHouders" name="KleurAfstandHouders">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/KleurAfstandHouders" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="21" xr3:uid="{4E699B0F-CC4C-4FBA-8B12-FC362D17295E}" uniqueName="Structuur" name="Structuur">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/Structuur" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="22" xr3:uid="{11CEBA6C-E4A8-4355-B912-C429ACE6EC29}" uniqueName="KleurBinnenkant" name="KleurBinnenkant">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/KleurBinnenkant" xmlDataType="string"/>
+    </tableColumn>
+    <tableColumn id="23" xr3:uid="{5D20AF13-945F-4DF0-8A6F-B2CA3DBE728D}" uniqueName="KleurBuitenkant" name="KleurBuitenkant">
+      <xmlColumnPr mapId="3" xpath="/Imports/Products/KleurBuitenkant" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -772,39 +742,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E18571-E348-4C24-8643-E3BA023899E4}">
-  <dimension ref="A1:V6"/>
+  <dimension ref="A1:AJ35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="38.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -821,58 +805,61 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>39</v>
       </c>
@@ -888,59 +875,62 @@
       <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>1700</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>2000</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L2" t="b">
+      <c r="M2" t="b">
         <v>0</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V2" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -956,66 +946,69 @@
       <c r="E3">
         <v>10</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>2300</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2000</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L3" t="b">
+      <c r="M3" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="O3" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="S3" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="U3" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W3" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D4" t="b">
@@ -1024,131 +1017,138 @@
       <c r="E4">
         <v>20</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>3000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>2000</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L4" t="b">
+      <c r="M4" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="N4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="O4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="1" t="s">
+      <c r="R4" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="S4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="T4" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T4" s="1" t="s">
+      <c r="U4" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V4" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W4" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>70</v>
       </c>
+      <c r="C5" s="1"/>
       <c r="D5" t="b">
         <v>1</v>
       </c>
       <c r="E5">
         <v>30</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="b">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>3800</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>2000</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L5" t="b">
+      <c r="M5" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="N5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="O5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="P5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="S5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="T5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="1" t="s">
+      <c r="U5" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V5" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="W5" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="b">
@@ -1157,57 +1157,155 @@
       <c r="E6">
         <v>40</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="b">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>4400</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>2000</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="L6" t="b">
+      <c r="M6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="N6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="O6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="S6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="T6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="T6" s="1" t="s">
+      <c r="U6" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="U6" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="V6" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="W6" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="AA31" s="1"/>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+    </row>
+    <row r="32" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="AA32" s="1"/>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+    </row>
+    <row r="33" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="AA33" s="1"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
+    </row>
+    <row r="34" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="1"/>
+      <c r="AI34" s="1"/>
+      <c r="AJ34" s="1"/>
+    </row>
+    <row r="35" spans="14:36" x14ac:dyDescent="0.25">
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="1"/>
+      <c r="AI35" s="1"/>
+      <c r="AJ35" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
